--- a/testdata/Cogmento-crm-Web.xlsx
+++ b/testdata/Cogmento-crm-Web.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15640" windowHeight="5470" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="8000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="createNewContact" sheetId="1" r:id="rId1"/>
     <sheet name="createNewEvent" sheetId="2" r:id="rId2"/>
     <sheet name="createNewDeal" sheetId="3" r:id="rId3"/>
+    <sheet name="createNewCompany" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>firstName</t>
   </si>
@@ -216,6 +217,36 @@
   </si>
   <si>
     <t>online</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>streetAddress</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>phNumber</t>
+  </si>
+  <si>
+    <t>emailId</t>
+  </si>
+  <si>
+    <t>NumOfEmployees</t>
+  </si>
+  <si>
+    <t>annualRevenue</t>
+  </si>
+  <si>
+    <t>@@Str(16)</t>
+  </si>
+  <si>
+    <t>xcy@gmail.com</t>
+  </si>
+  <si>
+    <t>Partner</t>
   </si>
 </sst>
 </file>
@@ -232,13 +263,19 @@
     <numFmt numFmtId="182" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="183" formatCode="dd/mmm/yy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -771,151 +808,153 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1245,8 +1284,8 @@
   <sheetPr/>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1267,175 +1306,175 @@
     <col min="36" max="36" width="11.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:35">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:35">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="12">
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="14">
         <v>35756</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1451,75 +1490,75 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="24.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="24.0909090909091" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.0909090909091" style="7" customWidth="1"/>
     <col min="5" max="5" width="11.5454545454545" customWidth="1"/>
     <col min="6" max="6" width="10.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="15.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3">
-        <v>45836.1875</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="5">
+        <v>45840.1875</v>
+      </c>
+      <c r="C2" s="5">
         <v>45876.2291666667</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="7"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1536,7 +1575,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1548,68 +1587,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="3">
-        <v>45836.625</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5">
+        <v>45866.625</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>1000</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="4"/>
+      <c r="G10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="15.1818181818182" customWidth="1"/>
+    <col min="3" max="4" width="9.54545454545454" customWidth="1"/>
+    <col min="5" max="5" width="15.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="12.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="16.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="15.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2">
+        <v>560095</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="2">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="xcy@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/testdata/Cogmento-crm-Web.xlsx
+++ b/testdata/Cogmento-crm-Web.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8000" activeTab="3"/>
+    <workbookView windowWidth="18600" windowHeight="6590" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="createNewContact" sheetId="1" r:id="rId1"/>
     <sheet name="createNewEvent" sheetId="2" r:id="rId2"/>
     <sheet name="createNewDeal" sheetId="3" r:id="rId3"/>
     <sheet name="createNewCompany" sheetId="5" r:id="rId4"/>
+    <sheet name="createNewTask" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>firstName</t>
   </si>
@@ -247,23 +248,51 @@
   </si>
   <si>
     <t>Partner</t>
+  </si>
+  <si>
+    <t>assignedTo</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>dueDate</t>
+  </si>
+  <si>
+    <t>closeDate</t>
+  </si>
+  <si>
+    <t>@@Str(6)</t>
+  </si>
+  <si>
+    <t>Gangadhar B</t>
+  </si>
+  <si>
+    <t>Technical Support</t>
+  </si>
+  <si>
+    <t>@@Str(19)</t>
+  </si>
+  <si>
+    <t>Awaiting input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-409]dddd\,mmmm\ d\,yyyy;@"/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy\ hh:mm"/>
-    <numFmt numFmtId="182" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="183" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="181" formatCode="[$-409]dddd\,mmmm\ d\,yyyy;@"/>
+    <numFmt numFmtId="182" formatCode="dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="183" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="184" formatCode="dd/mmm/yy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +303,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000C0"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -808,153 +843,156 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1284,7 +1322,7 @@
   <sheetPr/>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -1306,175 +1344,175 @@
     <col min="36" max="36" width="11.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:35">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="14" customFormat="1" spans="1:35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="14">
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="17">
         <v>35756</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1491,74 +1529,74 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="24.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="24.0909090909091" style="7" customWidth="1"/>
+    <col min="3" max="3" width="24.0909090909091" style="10" customWidth="1"/>
     <col min="5" max="5" width="11.5454545454545" customWidth="1"/>
     <col min="6" max="6" width="10.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="15.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="5">
-        <v>45840.1875</v>
-      </c>
-      <c r="C2" s="5">
-        <v>45876.2291666667</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="8">
+        <v>45902.1875</v>
+      </c>
+      <c r="C2" s="8">
+        <v>45937.2291666667</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="9"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="E5" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1575,77 +1613,77 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="9.72727272727273" customWidth="1"/>
-    <col min="3" max="3" width="21.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="25.9090909090909" customWidth="1"/>
     <col min="4" max="4" width="11.0909090909091" customWidth="1"/>
     <col min="9" max="9" width="11.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="5">
-        <v>45866.625</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="8">
+        <v>45928.625</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>1000</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="6"/>
+      <c r="G10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1658,8 +1696,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1674,60 +1712,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>560095</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="6">
         <v>40</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="6">
         <v>20000000</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1738,4 +1776,78 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9.72727272727273" customWidth="1"/>
+    <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="19.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="18.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="15.9090909090909" customWidth="1"/>
+    <col min="6" max="6" width="12.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="16.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="10.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45915.6666666667</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45955.6875</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/testdata/Cogmento-crm-Web.xlsx
+++ b/testdata/Cogmento-crm-Web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6590" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="8000" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="createNewContact" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="createNewDeal" sheetId="3" r:id="rId3"/>
     <sheet name="createNewCompany" sheetId="5" r:id="rId4"/>
     <sheet name="createNewTask" sheetId="6" r:id="rId5"/>
+    <sheet name="createNewCase" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>firstName</t>
   </si>
@@ -275,6 +276,24 @@
   </si>
   <si>
     <t>Awaiting input</t>
+  </si>
+  <si>
+    <t>aasignedTo</t>
+  </si>
+  <si>
+    <t>deadLineDate</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>Complaint</t>
+  </si>
+  <si>
+    <t>@@Str(14)</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -307,17 +326,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF0000C0"/>
       <name val="Consolas"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -973,15 +992,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1344,175 +1365,175 @@
     <col min="36" max="36" width="11.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" spans="1:35">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="16" customFormat="1" spans="1:35">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="17">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="19">
         <v>35756</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1536,67 +1557,67 @@
   <cols>
     <col min="1" max="1" width="10.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="24.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="24.0909090909091" style="10" customWidth="1"/>
+    <col min="3" max="3" width="24.0909090909091" style="12" customWidth="1"/>
     <col min="5" max="5" width="11.5454545454545" customWidth="1"/>
     <col min="6" max="6" width="10.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="15.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="10">
         <v>45902.1875</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>45937.2291666667</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="12"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="E5" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1625,65 +1646,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>45928.625</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>20</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>1000</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="9"/>
+      <c r="G10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1741,31 +1762,31 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>560095</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>40</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="7">
         <v>20000000</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1783,7 +1804,7 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1800,17 +1821,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="8">
+        <v>45915.6666666667</v>
+      </c>
+      <c r="E2" s="8">
+        <v>45955.6875</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9.72727272727273" customWidth="1"/>
+    <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="10.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="15.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="18.0909090909091" customWidth="1"/>
+    <col min="6" max="6" width="12.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="9.54545454545454" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>75</v>
@@ -1819,11 +1914,13 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
@@ -1831,18 +1928,21 @@
         <v>77</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D2" s="4">
-        <v>45915.6666666667</v>
+        <v>45947.5104166667</v>
       </c>
       <c r="E2" s="4">
-        <v>45955.6875</v>
+        <v>45975.8125</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>80</v>
       </c>
     </row>
